--- a/Collections/Евро/France/#EURO#France#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/Евро/France/#EURO#France#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -30,7 +30,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="76">
   <si>
     <t>Year</t>
   </si>
@@ -266,6 +266,36 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Subtype_4</t>
+  </si>
+  <si>
+    <t>5.000</t>
+  </si>
+  <si>
+    <t>Obv: All yellow</t>
+  </si>
+  <si>
+    <t>20.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obv: Red ribbon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obv: Red, white and blue cockade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obv: Blue flag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obv: Pink ribbon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obv: Blue cornflower </t>
+  </si>
+  <si>
+    <t>10.000</t>
   </si>
 </sst>
 </file>
@@ -574,15 +604,14 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="14">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -608,6 +637,71 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -629,9 +723,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="13"/>
+    <tableColumn id="2" name="Link" dataDxfId="12" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -900,13 +994,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -915,14 +1009,15 @@
     <col min="2" max="2" width="48.6328125" style="11" customWidth="1"/>
     <col min="3" max="4" width="36.6328125" style="11" customWidth="1"/>
     <col min="5" max="5" width="24.81640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="18.6328125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -933,16 +1028,17 @@
         <v>2</v>
       </c>
       <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="5" t="s">
@@ -954,15 +1050,18 @@
       <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2007</v>
       </c>
@@ -978,18 +1077,19 @@
       <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="9">
+      <c r="H3" s="9">
         <v>0</v>
       </c>
-      <c r="H3" s="10" t="str">
-        <f t="shared" ref="H3" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="10" t="str">
+        <f t="shared" ref="I3" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2008</v>
       </c>
@@ -1005,23 +1105,24 @@
       <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="10" t="str">
-        <f t="shared" ref="H4:H5" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="10" t="str">
+        <f t="shared" ref="I4:I6" si="1">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>43</v>
@@ -1032,23 +1133,26 @@
       <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10" t="str">
+      <c r="F5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>43</v>
@@ -1059,502 +1163,699 @@
       <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H7" s="9">
         <v>0</v>
       </c>
-      <c r="H6" s="10" t="str">
-        <f t="shared" ref="H6:H24" si="2">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="I7" s="10" t="str">
+        <f t="shared" ref="I7:I30" si="2">IF(OR(AND(H7&gt;1,H7&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
         <v>2011</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="C8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H8" s="9">
         <v>1</v>
       </c>
-      <c r="H7" s="10" t="str">
+      <c r="I8" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>2012</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2012</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="C10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="9">
+      <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="H9" s="10" t="str">
+      <c r="I10" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2013</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="20" t="s">
+      <c r="C12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="9">
+      <c r="H12" s="9">
         <v>0</v>
       </c>
-      <c r="H11" s="10" t="str">
+      <c r="I12" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
-        <v>2014</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2014</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="20" t="s">
+      <c r="C14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="9">
+      <c r="H14" s="9">
         <v>0</v>
       </c>
-      <c r="H13" s="10" t="str">
+      <c r="I14" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10" t="str">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="10" t="str">
+        <f t="shared" ref="I18" si="3">IF(OR(AND(H18&gt;1,H18&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="20" t="s">
+      <c r="C19" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="9">
+      <c r="H19" s="9">
         <v>0</v>
       </c>
-      <c r="H16" s="10" t="str">
+      <c r="I19" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
         <v>2016</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="20" t="s">
+      <c r="C21" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="9">
+      <c r="H21" s="9">
         <v>1</v>
       </c>
-      <c r="H17" s="10" t="str">
+      <c r="I21" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
         <v>2016</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="20" t="s">
+      <c r="C22" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="9">
+      <c r="H22" s="9">
         <v>0</v>
       </c>
-      <c r="H18" s="10" t="str">
+      <c r="I22" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
         <v>2017</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="20" t="s">
+      <c r="C23" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="9">
+      <c r="H23" s="9">
         <v>0</v>
       </c>
-      <c r="H19" s="10" t="str">
+      <c r="I23" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
         <v>2017</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f t="shared" ref="I24" si="4">IF(OR(AND(H24&gt;1,H24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="20" t="s">
+      <c r="C25" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="9">
+      <c r="H25" s="9">
         <v>0</v>
       </c>
-      <c r="H20" s="10" t="str">
+      <c r="I25" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
         <v>2018</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="20" t="s">
+      <c r="C26" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="9">
+      <c r="H26" s="9">
         <v>1</v>
       </c>
-      <c r="H21" s="10" t="str">
+      <c r="I26" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
         <v>2018</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="20" t="s">
+      <c r="C28" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="9">
+      <c r="H28" s="9">
         <v>1</v>
       </c>
-      <c r="H22" s="10" t="str">
+      <c r="I28" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
         <v>2019</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="24" t="s">
+      <c r="C29" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="H29" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="10" t="str">
+      <c r="I29" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
         <v>2019</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="20" t="s">
+      <c r="C30" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="9">
+      <c r="H30" s="9">
         <v>1</v>
       </c>
-      <c r="H24" s="10" t="str">
+      <c r="I30" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1563,15 +1864,15 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21">
-    <cfRule type="containsText" dxfId="5" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+  <conditionalFormatting sqref="H3 H6 H8 H10 H12 H14 H17 H21 H23 H26">
+    <cfRule type="containsText" dxfId="10" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G3 G7 G9 G11 G13 G15 G17 G19 G21">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="H6 H3 H8 H10 H12 H14 H17 H21 H23 H26">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1582,12 +1883,63 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24">
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+  <conditionalFormatting sqref="H4 H7 H9 H11 H13 H16 H19 H22 H25 H28 H30">
+    <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24">
+  <conditionalFormatting sqref="H4 H7 H9 H11 H13 H16 H19 H22 H25 H28 H30">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1599,12 +1951,63 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="H18">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
